--- a/Case Study/Sample_Sprint Backlog & Burndown Chart.xlsx
+++ b/Case Study/Sample_Sprint Backlog & Burndown Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1260655\Desktop\Case Study\Case Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\python\royal bank\retail_bank\Case Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E2D6A-4110-4422-AF67-E6C1944764DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8530A91-AEB9-490B-92E7-374C947E1C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Volunteer</t>
   </si>
@@ -50,31 +50,16 @@
     <t>Task Details</t>
   </si>
   <si>
-    <t>Ram</t>
-  </si>
-  <si>
     <t>Task 5</t>
   </si>
   <si>
     <t>Open</t>
   </si>
   <si>
-    <t>Write a program for displaying the home page</t>
-  </si>
-  <si>
-    <t>Design the UI for the Home page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design and create the DB fields </t>
   </si>
   <si>
-    <t>Write test conditions to test the home page</t>
-  </si>
-  <si>
     <t>Sprint Backlog Item</t>
-  </si>
-  <si>
-    <t>Priya</t>
   </si>
   <si>
     <t>----</t>
@@ -148,12 +133,6 @@
     <t>Task #</t>
   </si>
   <si>
-    <t>Satish</t>
-  </si>
-  <si>
-    <t>Vidya</t>
-  </si>
-  <si>
     <t>Priti</t>
   </si>
   <si>
@@ -161,6 +140,30 @@
   </si>
   <si>
     <t>Lakshmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashier and his backend work is the sprint backlog </t>
+  </si>
+  <si>
+    <t>santhosh</t>
+  </si>
+  <si>
+    <t>jinto josan</t>
+  </si>
+  <si>
+    <t>task 6</t>
+  </si>
+  <si>
+    <t>task7</t>
+  </si>
+  <si>
+    <t>create database models</t>
+  </si>
+  <si>
+    <t>write program for the home page and create skeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write login session and </t>
   </si>
 </sst>
 </file>
@@ -489,15 +492,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -513,6 +507,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1918,28 +1921,28 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="8" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
-    <col min="7" max="12" width="7.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="5" customWidth="1"/>
+    <col min="7" max="12" width="7.109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="12" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
@@ -1948,16 +1951,16 @@
         <v>8</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1970,43 +1973,43 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>29</v>
+      <c r="A3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F3" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="9">
         <v>4</v>
@@ -2025,8 +2028,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2034,10 +2037,10 @@
         <v>41</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F4" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
@@ -2056,19 +2059,19 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="9">
         <v>3</v>
@@ -2087,16 +2090,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F6" s="9">
         <v>3</v>
@@ -2114,20 +2117,20 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" s="9">
         <v>2</v>
@@ -2145,23 +2148,23 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2172,19 +2175,19 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2195,20 +2198,20 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>29</v>
+      <c r="A10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10">
         <v>6</v>
@@ -2226,20 +2229,20 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10">
         <v>5</v>
@@ -2261,16 +2264,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10">
         <v>5</v>
@@ -2292,16 +2295,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10">
         <v>4</v>
@@ -2323,19 +2326,19 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2346,19 +2349,19 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -2370,14 +2373,14 @@
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2389,14 +2392,14 @@
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -2408,7 +2411,7 @@
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="E18" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2">
         <v>300</v>
@@ -2428,18 +2431,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2454,32 +2457,32 @@
       <selection activeCell="A21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:9" ht="21.6">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="21">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="21.6">
       <c r="A21" s="2">
         <v>300</v>
       </c>
@@ -2504,7 +2507,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="21">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="21.6">
       <c r="A27" s="2">
         <v>300</v>
       </c>

--- a/Case Study/Sample_Sprint Backlog & Burndown Chart.xlsx
+++ b/Case Study/Sample_Sprint Backlog & Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\python\royal bank\retail_bank\Case Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8530A91-AEB9-490B-92E7-374C947E1C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0AE266-FBD3-416E-AEFE-2284DD15B3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,20 @@
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId1"/>
     <sheet name="Sprint 1 Burndown Chart" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Volunteer</t>
   </si>
@@ -41,9 +49,6 @@
     <t>Task 3</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Task 4</t>
   </si>
   <si>
@@ -53,18 +58,9 @@
     <t>Task 5</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design and create the DB fields </t>
-  </si>
-  <si>
     <t>Sprint Backlog Item</t>
   </si>
   <si>
-    <t>----</t>
-  </si>
-  <si>
     <t>Day1</t>
   </si>
   <si>
@@ -86,62 +82,27 @@
     <t>New Estimates of Effort remaining at end of</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Day0</t>
   </si>
   <si>
-    <t>As a….
-I want to …..
-So that I can ….</t>
-  </si>
-  <si>
     <t>US001</t>
   </si>
   <si>
-    <t>Execute the tests</t>
-  </si>
-  <si>
     <t>Day6</t>
   </si>
   <si>
-    <t>Task n</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>US002</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>…..</t>
-  </si>
-  <si>
-    <t>US014</t>
-  </si>
-  <si>
     <t>Story #</t>
   </si>
   <si>
     <t>Task #</t>
   </si>
   <si>
-    <t>Priti</t>
-  </si>
-  <si>
-    <t>Ninad</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
     <t xml:space="preserve">cashier and his backend work is the sprint backlog </t>
   </si>
   <si>
@@ -163,7 +124,61 @@
     <t>write program for the home page and create skeleton</t>
   </si>
   <si>
-    <t xml:space="preserve">write login session and </t>
+    <t>write login session and and home page ui</t>
+  </si>
+  <si>
+    <t>write ui and backend for customer creation , update and delete</t>
+  </si>
+  <si>
+    <t>write ui and backend for account creation  and delete</t>
+  </si>
+  <si>
+    <t>Execute the tests and version control</t>
+  </si>
+  <si>
+    <t>css and other decorations at ui</t>
+  </si>
+  <si>
+    <t>task 5</t>
+  </si>
+  <si>
+    <t>write code for ui and login for home layout of cashier</t>
+  </si>
+  <si>
+    <t>write code for status of accounts</t>
+  </si>
+  <si>
+    <t>test code of transactions</t>
+  </si>
+  <si>
+    <t>test and merge code for cashier layout and transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handle login and logout session token </t>
+  </si>
+  <si>
+    <t>US003</t>
+  </si>
+  <si>
+    <t>end to end test</t>
+  </si>
+  <si>
+    <t>task 1</t>
+  </si>
+  <si>
+    <t>task 2</t>
+  </si>
+  <si>
+    <t>prettify all the developed pages and test end to end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and create the DB fields and manage scrum sheets </t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>write code for transaction and develop ui for it</t>
   </si>
 </sst>
 </file>
@@ -447,7 +462,7 @@
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -457,9 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -492,6 +504,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -507,15 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1918,531 +1930,584 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="5" customWidth="1"/>
-    <col min="7" max="12" width="7.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="8.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="4" customWidth="1"/>
+    <col min="7" max="12" width="7.109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="6" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="14"/>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="H4" s="9">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="9">
-        <v>4</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7" t="s">
-        <v>6</v>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="H6" s="9">
-        <v>3</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="7" t="s">
-        <v>10</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="7"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="7"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="9">
         <v>6</v>
       </c>
-      <c r="G10" s="9">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9">
-        <v>6</v>
-      </c>
-      <c r="I10" s="9">
-        <v>6</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="7" t="s">
-        <v>10</v>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="7" t="s">
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="9">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="10">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="10">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="7"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="7"/>
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
-      <c r="E18" s="12" t="s">
-        <v>22</v>
+      <c r="E18" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>300</v>
+        <f>SUM(F3:F17)</f>
+        <v>64</v>
       </c>
       <c r="G18" s="2">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>160</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2453,33 +2518,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A20:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="20" spans="1:9" ht="21.6">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="21.6">
